--- a/content/work-journal/servo.xlsx
+++ b/content/work-journal/servo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t xml:space="preserve">Body Style</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">SG92R</t>
@@ -336,8 +339,8 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1:M10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -395,19 +398,54 @@
         <v>Body Style|[link](URL)|Price per package|# per package|Price per servo|Cheapest package|# per package|cheapest price|Needed Cap|Brownout at x2|Brownout at x4|Notes</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1"/>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="M2" s="0" t="str">
         <f aca="false">A2 &amp; "|" &amp; B2 &amp; "|" &amp; C2 &amp; "|" &amp; D2&amp;"|"&amp; E2&amp;"|"&amp; F2&amp;"|"&amp; G2&amp;"|"&amp; H2&amp;"|"&amp; I2&amp;"|"&amp; J2&amp;"|"&amp; K2&amp;"|"&amp;L2</f>
-        <v>|||||||||||</v>
+        <v>-|-|-|-|-|-|-|-|-|-|-|-</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>5.95</v>
@@ -430,16 +468,16 @@
         <v>5.36</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M3" s="0" t="str">
         <f aca="false">A3 &amp; "|"&amp; "[link]("&amp;B3&amp;")"&amp;"|"&amp; C3&amp;"|"&amp; D3&amp;"|"&amp; E3&amp;"|"&amp; F3&amp;"|"&amp; G3&amp;"|"&amp; H3&amp;"|"&amp; I3&amp;"|"&amp; J3&amp;"|"&amp; K3&amp;"|"&amp; L3</f>
@@ -448,10 +486,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>10.99</v>
@@ -474,16 +512,16 @@
         <v>1.686875</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M4" s="0" t="str">
         <f aca="false">A4 &amp; "|"&amp; "[link]("&amp;B4&amp;")"&amp;"|"&amp; C4&amp;"|"&amp; D4&amp;"|"&amp; E4&amp;"|"&amp; F4&amp;"|"&amp; G4&amp;"|"&amp; H4&amp;"|"&amp; I4&amp;"|"&amp; J4&amp;"|"&amp; K4&amp;"|"&amp; L4</f>
@@ -492,10 +530,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>9.29</v>
@@ -518,16 +556,16 @@
         <v>1.888</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5" s="0" t="str">
         <f aca="false">A5 &amp; "|"&amp; "[link]("&amp;B5&amp;")"&amp;"|"&amp; C5&amp;"|"&amp; D5&amp;"|"&amp; E5&amp;"|"&amp; F5&amp;"|"&amp; G5&amp;"|"&amp; H5&amp;"|"&amp; I5&amp;"|"&amp; J5&amp;"|"&amp; K5&amp;"|"&amp; L5</f>
@@ -536,10 +574,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>14.99</v>
@@ -562,16 +600,16 @@
         <v>1.87375</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="0" t="str">
         <f aca="false">A6 &amp; "|"&amp; "[link]("&amp;B6&amp;")"&amp;"|"&amp; C6&amp;"|"&amp; D6&amp;"|"&amp; E6&amp;"|"&amp; F6&amp;"|"&amp; G6&amp;"|"&amp; H6&amp;"|"&amp; I6&amp;"|"&amp; J6&amp;"|"&amp; K6&amp;"|"&amp; L6</f>
@@ -580,10 +618,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>14.98</v>
@@ -606,16 +644,16 @@
         <v>3.1225</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="0" t="str">
         <f aca="false">A7 &amp; "|"&amp; "[link]("&amp;B7&amp;")"&amp;"|"&amp; C7&amp;"|"&amp; D7&amp;"|"&amp; E7&amp;"|"&amp; F7&amp;"|"&amp; G7&amp;"|"&amp; H7&amp;"|"&amp; I7&amp;"|"&amp; J7&amp;"|"&amp; K7&amp;"|"&amp; L7</f>
@@ -624,10 +662,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>10.79</v>
@@ -650,16 +688,16 @@
         <v>10.79</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M8" s="0" t="str">
         <f aca="false">A8 &amp; "|"&amp; "[link]("&amp;B8&amp;")"&amp;"|"&amp; C8&amp;"|"&amp; D8&amp;"|"&amp; E8&amp;"|"&amp; F8&amp;"|"&amp; G8&amp;"|"&amp; H8&amp;"|"&amp; I8&amp;"|"&amp; J8&amp;"|"&amp; K8&amp;"|"&amp; L8</f>
@@ -668,10 +706,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>11.99</v>
@@ -694,16 +732,16 @@
         <v>11.99</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M9" s="0" t="str">
         <f aca="false">A9 &amp; "|"&amp; "[link]("&amp;B9&amp;")"&amp;"|"&amp; C9&amp;"|"&amp; D9&amp;"|"&amp; E9&amp;"|"&amp; F9&amp;"|"&amp; G9&amp;"|"&amp; H9&amp;"|"&amp; I9&amp;"|"&amp; J9&amp;"|"&amp; K9&amp;"|"&amp; L9</f>
@@ -712,10 +750,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>10.99</v>
@@ -738,16 +776,16 @@
         <v>10.99</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M10" s="0" t="str">
         <f aca="false">A10 &amp; "|"&amp; "[link]("&amp;B10&amp;")"&amp;"|"&amp; C10&amp;"|"&amp; D10&amp;"|"&amp; E10&amp;"|"&amp; F10&amp;"|"&amp; G10&amp;"|"&amp; H10&amp;"|"&amp; I10&amp;"|"&amp; J10&amp;"|"&amp; K10&amp;"|"&amp; L10</f>
